--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehler\Desktop\6780_material\Project stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24C1CC2-7CA1-4C33-8D8E-937E41346E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DBAE9B-D91B-4248-8CC6-6548FB0D6DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-40" windowWidth="19420" windowHeight="10300" xr2:uid="{620C0E2E-3B53-4DD9-BFD3-94BD8332814B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Part</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>optocoupler</t>
+  </si>
+  <si>
+    <t>PRT-09536</t>
+  </si>
+  <si>
+    <t>female DIN connector</t>
   </si>
 </sst>
 </file>
@@ -110,8 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -447,63 +452,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C944C8D-0FBD-4927-93BC-FA56CF506F91}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
@@ -511,6 +510,14 @@
       </c>
       <c r="F3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
